--- a/BackTest/2019-11-02 BackTest QKC.xlsx
+++ b/BackTest/2019-11-02 BackTest QKC.xlsx
@@ -949,7 +949,9 @@
       <c r="J12" t="n">
         <v>0.4599999999999991</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>2.222222222222178</v>
+      </c>
       <c r="L12" t="n">
         <v>5.860000000000001</v>
       </c>
@@ -1002,7 +1004,9 @@
       <c r="J13" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.347826086956438</v>
+      </c>
       <c r="L13" t="n">
         <v>5.862000000000001</v>
       </c>
@@ -1055,7 +1059,9 @@
       <c r="J14" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>2.222222222222178</v>
+      </c>
       <c r="L14" t="n">
         <v>5.864000000000001</v>
       </c>
@@ -1108,7 +1114,9 @@
       <c r="J15" t="n">
         <v>0.4999999999999991</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>23.80952380952373</v>
+      </c>
       <c r="L15" t="n">
         <v>5.868</v>
       </c>
@@ -1161,7 +1169,9 @@
       <c r="J16" t="n">
         <v>0.5199999999999987</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-24.13793103448255</v>
+      </c>
       <c r="L16" t="n">
         <v>5.875999999999999</v>
       </c>
@@ -1214,7 +1224,9 @@
       <c r="J17" t="n">
         <v>0.589999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>10.00000000000022</v>
+      </c>
       <c r="L17" t="n">
         <v>5.862</v>
       </c>
@@ -1263,7 +1275,9 @@
       <c r="J18" t="n">
         <v>0.6499999999999986</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>30.76923076923082</v>
+      </c>
       <c r="L18" t="n">
         <v>5.87</v>
       </c>
@@ -1316,7 +1330,9 @@
       <c r="J19" t="n">
         <v>0.6499999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>27.99999999999986</v>
+      </c>
       <c r="L19" t="n">
         <v>5.878</v>
       </c>
@@ -1367,7 +1383,9 @@
       <c r="J20" t="n">
         <v>0.6499999999999986</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.999999999999822</v>
+      </c>
       <c r="L20" t="n">
         <v>5.885</v>
       </c>
@@ -1418,7 +1436,9 @@
       <c r="J21" t="n">
         <v>0.669999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.28571428571441</v>
+      </c>
       <c r="L21" t="n">
         <v>5.889000000000001</v>
       </c>
@@ -1471,7 +1491,9 @@
       <c r="J22" t="n">
         <v>0.669999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>10.00000000000022</v>
+      </c>
       <c r="L22" t="n">
         <v>5.892000000000001</v>
       </c>
@@ -1525,7 +1547,7 @@
         <v>0.669999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>6.060606060606073</v>
+        <v>10.00000000000022</v>
       </c>
       <c r="L23" t="n">
         <v>5.894000000000001</v>
